--- a/Verbs.xlsx
+++ b/Verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbos\OneDrive\Bureaublad\Prive\Projecten\Language_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386317B-2A12-4278-BE63-E61A12341F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61104A-04BE-4517-83AD-E966883562C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{738B3EF0-1DD2-4D77-8B38-C287EED5D6AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="783">
   <si>
     <t>Present_ES</t>
   </si>
@@ -3006,6 +3006,270 @@
   </si>
   <si>
     <t>Ayudar*</t>
+  </si>
+  <si>
+    <t>Ik</t>
+  </si>
+  <si>
+    <t>Jij</t>
+  </si>
+  <si>
+    <t>Hij/Zij/U</t>
+  </si>
+  <si>
+    <t>Wij/Jullie</t>
+  </si>
+  <si>
+    <t>Zij</t>
+  </si>
+  <si>
+    <t>TT_EN</t>
+  </si>
+  <si>
+    <t>Zijn</t>
+  </si>
+  <si>
+    <t>OVT_EN</t>
+  </si>
+  <si>
+    <t>VVT_EN</t>
+  </si>
+  <si>
+    <t>VTT_EN</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>bent</t>
+  </si>
+  <si>
+    <t>zijn</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>waren</t>
+  </si>
+  <si>
+    <t>ben geweest</t>
+  </si>
+  <si>
+    <t>bent geweest</t>
+  </si>
+  <si>
+    <t>zijn geweest</t>
+  </si>
+  <si>
+    <t>was geweest</t>
+  </si>
+  <si>
+    <t>waren geweest</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>He/She is</t>
+  </si>
+  <si>
+    <t>We/you are</t>
+  </si>
+  <si>
+    <t>I have been</t>
+  </si>
+  <si>
+    <t>had been</t>
+  </si>
+  <si>
+    <t>You have been</t>
+  </si>
+  <si>
+    <t>He/She was</t>
+  </si>
+  <si>
+    <t>is geweest</t>
+  </si>
+  <si>
+    <t>He/She has been</t>
+  </si>
+  <si>
+    <t>We/you were</t>
+  </si>
+  <si>
+    <t>We/you have been</t>
+  </si>
+  <si>
+    <t>They have been</t>
+  </si>
+  <si>
+    <t>Hebben</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>heb gehad</t>
+  </si>
+  <si>
+    <t>I have had</t>
+  </si>
+  <si>
+    <t>had gehad</t>
+  </si>
+  <si>
+    <t>I had had</t>
+  </si>
+  <si>
+    <t>hebt</t>
+  </si>
+  <si>
+    <t>hebt gehad</t>
+  </si>
+  <si>
+    <t>You have had</t>
+  </si>
+  <si>
+    <t>You had had</t>
+  </si>
+  <si>
+    <t>heeft</t>
+  </si>
+  <si>
+    <t>He/She has</t>
+  </si>
+  <si>
+    <t>He/She had</t>
+  </si>
+  <si>
+    <t>heeft gehad</t>
+  </si>
+  <si>
+    <t>He/She has had</t>
+  </si>
+  <si>
+    <t>He/She had had</t>
+  </si>
+  <si>
+    <t>hebben</t>
+  </si>
+  <si>
+    <t>We/you have</t>
+  </si>
+  <si>
+    <t>hadden</t>
+  </si>
+  <si>
+    <t>We/you had</t>
+  </si>
+  <si>
+    <t>hebben gehad</t>
+  </si>
+  <si>
+    <t>We/you have had</t>
+  </si>
+  <si>
+    <t>hadden gehad</t>
+  </si>
+  <si>
+    <t>We/you had had</t>
+  </si>
+  <si>
+    <t>They have had</t>
+  </si>
+  <si>
+    <t>They had had</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>ging</t>
+  </si>
+  <si>
+    <t>ben gegaan</t>
+  </si>
+  <si>
+    <t>I have gone</t>
+  </si>
+  <si>
+    <t>was gegaan</t>
+  </si>
+  <si>
+    <t>I had gone</t>
+  </si>
+  <si>
+    <t>gaat</t>
+  </si>
+  <si>
+    <t>bent gegaan</t>
+  </si>
+  <si>
+    <t>You have gone</t>
+  </si>
+  <si>
+    <t>You had gone</t>
+  </si>
+  <si>
+    <t>He/She goes</t>
+  </si>
+  <si>
+    <t>He/She went</t>
+  </si>
+  <si>
+    <t>is gegaan</t>
+  </si>
+  <si>
+    <t>He/She has gone</t>
+  </si>
+  <si>
+    <t>He/She had gone</t>
+  </si>
+  <si>
+    <t>gaan</t>
+  </si>
+  <si>
+    <t>We/you go</t>
+  </si>
+  <si>
+    <t>gingen</t>
+  </si>
+  <si>
+    <t>We/you went</t>
+  </si>
+  <si>
+    <t>zijn gegaan</t>
+  </si>
+  <si>
+    <t>We/you have gone</t>
+  </si>
+  <si>
+    <t>waren gegaan</t>
+  </si>
+  <si>
+    <t>We/you had gone</t>
+  </si>
+  <si>
+    <t>They have gone</t>
+  </si>
+  <si>
+    <t>They had gone</t>
+  </si>
+  <si>
+    <t>TT_DU</t>
+  </si>
+  <si>
+    <t>OVT_DU</t>
+  </si>
+  <si>
+    <t>VTT_DU</t>
+  </si>
+  <si>
+    <t>VVT_DU</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0973634E-F9E1-46E4-B97C-DC0129F20C9A}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6828,14 +7094,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC2F96-E6C4-4E51-BA28-BC032C440544}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="9" width="24.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Verbs.xlsx
+++ b/Verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbos\OneDrive\Bureaublad\Prive\Projecten\Language_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61104A-04BE-4517-83AD-E966883562C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897AD7C-27F2-4DE7-96D9-F2BF5AB48D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{738B3EF0-1DD2-4D77-8B38-C287EED5D6AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="784">
   <si>
     <t>Present_ES</t>
   </si>
@@ -3270,6 +3270,9 @@
   </si>
   <si>
     <t>VVT_DU</t>
+  </si>
+  <si>
+    <t>Gaan</t>
   </si>
 </sst>
 </file>
@@ -7096,8 +7099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC2F96-E6C4-4E51-BA28-BC032C440544}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7455,7 +7458,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>727</v>
+        <v>783</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>779</v>
